--- a/Result/Report.xlsx
+++ b/Result/Report.xlsx
@@ -12,15 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Scenario Name</t>
   </si>
   <si>
-    <t>Project No</t>
-  </si>
-  <si>
-    <t>Sap Project Status</t>
+    <t>Document Number</t>
   </si>
   <si>
     <t>Validated</t>
@@ -29,19 +26,16 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Lsmw Project Release</t>
+    <t>Lsmw Journal Creation</t>
   </si>
   <si>
-    <t>CP01133826</t>
+    <t>1600000256</t>
   </si>
   <si>
-    <t/>
+    <t>The Document posted successfully</t>
   </si>
   <si>
-    <t>The project has been Released</t>
-  </si>
-  <si>
-    <t>FAIL</t>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -107,17 +101,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.39453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.58203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.33984375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="28.34375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.29296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.61328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="31.8828125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="8.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -133,25 +126,19 @@
       <c r="D1" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s" s="2">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s" s="3">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
